--- a/airbnb.xlsx
+++ b/airbnb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dika\belajar\BKK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A1AFFA-9C8B-4889-809C-C213893DB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86A470-01BC-4B3E-BA4A-DF9E968B5452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44520" yWindow="5760" windowWidth="20220" windowHeight="14205" xr2:uid="{68370AC9-5AD0-4ACD-A8B7-B7C9514EE215}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>airbnb_name</t>
   </si>
@@ -322,6 +322,9 @@
   <si>
     <t xml:space="preserve">3592318
 </t>
+  </si>
+  <si>
+    <t>bedroom</t>
   </si>
 </sst>
 </file>
@@ -728,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9282EF31-0C77-4997-9D02-E057F1A67096}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +749,7 @@
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -771,8 +774,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -797,8 +803,11 @@
       <c r="H2" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="H3" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -849,8 +861,11 @@
       <c r="H4" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -875,8 +890,11 @@
       <c r="H5" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -899,8 +917,11 @@
       <c r="H6" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -925,8 +946,11 @@
       <c r="H7" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -951,8 +975,11 @@
       <c r="H8" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="396" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="396" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -977,8 +1004,11 @@
       <c r="H9" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1003,8 +1033,11 @@
       <c r="H10" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1029,8 +1062,11 @@
       <c r="H11" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1055,8 +1091,11 @@
       <c r="H12" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1081,8 +1120,11 @@
       <c r="H13" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1107,8 +1149,11 @@
       <c r="H14" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="345" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="345" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1133,8 +1178,11 @@
       <c r="H15" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="345" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="345" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1159,8 +1207,11 @@
       <c r="H16" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1185,8 +1236,11 @@
       <c r="H17" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1195,7 +1249,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1204,7 +1258,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1213,7 +1267,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1222,7 +1276,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1231,7 +1285,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1240,7 +1294,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1249,7 +1303,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1258,7 +1312,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1267,7 +1321,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1276,7 +1330,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1285,7 +1339,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1294,7 +1348,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1303,7 +1357,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1312,7 +1366,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>

--- a/airbnb.xlsx
+++ b/airbnb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dika\belajar\BKK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86A470-01BC-4B3E-BA4A-DF9E968B5452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39008FBF-638E-46A9-B91D-5AD5C23DD422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44520" yWindow="5760" windowWidth="20220" windowHeight="14205" xr2:uid="{68370AC9-5AD0-4ACD-A8B7-B7C9514EE215}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>airbnb_name</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>bedroom</t>
+  </si>
+  <si>
+    <t>https://a0.muscache.com/im/pictures/hosting/Hosting-1283112503431022723/original/c471765c-e6a2-4c9a-84de-0ec3238d5367.jpeg?im_w=1200&amp;im_format=avif</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1421,20 +1424,20 @@
     <hyperlink ref="G16" r:id="rId15" display="https://www.airbnb.com/rooms/39979823?adults=4&amp;category_tag=Tag%3A8661&amp;check_in=2025-05-18&amp;check_out=2025-05-21&amp;search_mode=flex_destinations_search&amp;photo_id=906220210&amp;source_impression_id=p3_1740389094_P3RFPsUc2rPh0eip&amp;previous_page_section_name=1000&amp;federated_search_id=fbb78c17-07c7-4405-a747-9a7be8e57591" xr:uid="{0A658D9C-899E-49DD-8DEE-0B90FE643CBF}"/>
     <hyperlink ref="G17" r:id="rId16" display="https://www.airbnb.com/rooms/26403214?adults=4&amp;category_tag=Tag%3A8661&amp;check_in=2025-05-18&amp;check_out=2025-05-21&amp;search_mode=flex_destinations_search&amp;photo_id=1857514413&amp;source_impression_id=p3_1740128049_P3oWunJJ7Hi2AlG8&amp;previous_page_section_name=1000&amp;federated_search_id=da0e7d5f-dfc9-4315-b354-f1d1f08b3b43" xr:uid="{F18740EF-2B43-4533-9E72-004BD3FFC5C0}"/>
     <hyperlink ref="H2" r:id="rId17" xr:uid="{F217D598-4884-4779-8685-D7EA4229707B}"/>
-    <hyperlink ref="H3" r:id="rId18" xr:uid="{54C02004-5A21-442D-9551-32E389839492}"/>
-    <hyperlink ref="H13" r:id="rId19" xr:uid="{0F8F8F67-8A4A-4220-9344-63783AFC2CFC}"/>
-    <hyperlink ref="H12" r:id="rId20" xr:uid="{59FBB4BA-DE27-40AD-8EF4-8D1DF8AD84F6}"/>
-    <hyperlink ref="H11" r:id="rId21" xr:uid="{38D74123-4F10-4CCF-AB44-2666D2CC461A}"/>
-    <hyperlink ref="H5" r:id="rId22" xr:uid="{EEA8BCEC-9F9A-4767-AB02-8D1CD56A0367}"/>
-    <hyperlink ref="H6" r:id="rId23" xr:uid="{DE6991A4-41A4-4850-B732-DF410D3584DA}"/>
-    <hyperlink ref="H7" r:id="rId24" xr:uid="{73A12C61-C767-48C8-B319-B231BE4557C8}"/>
-    <hyperlink ref="H8" r:id="rId25" xr:uid="{4314B15B-2F7B-4D1A-9A69-651C10A74D52}"/>
-    <hyperlink ref="H4" r:id="rId26" xr:uid="{3255D331-F60E-499F-A6DE-141FB220AEA4}"/>
-    <hyperlink ref="H10" r:id="rId27" xr:uid="{EDC5BD64-6DA7-4F8E-998E-6C8F24675941}"/>
-    <hyperlink ref="H14" r:id="rId28" xr:uid="{307FD16E-EFF3-4C24-84F1-35C7A10BFCC9}"/>
-    <hyperlink ref="H15" r:id="rId29" xr:uid="{94D528DC-BCD6-4592-A7E9-45EEF26504ED}"/>
-    <hyperlink ref="H16" r:id="rId30" xr:uid="{8B7B4974-3F60-4770-93BD-8913DA0208F6}"/>
-    <hyperlink ref="H17" r:id="rId31" xr:uid="{7A90BF67-131A-4BAC-B5D4-A7E479D736C4}"/>
+    <hyperlink ref="H13" r:id="rId18" xr:uid="{0F8F8F67-8A4A-4220-9344-63783AFC2CFC}"/>
+    <hyperlink ref="H12" r:id="rId19" xr:uid="{59FBB4BA-DE27-40AD-8EF4-8D1DF8AD84F6}"/>
+    <hyperlink ref="H11" r:id="rId20" xr:uid="{38D74123-4F10-4CCF-AB44-2666D2CC461A}"/>
+    <hyperlink ref="H5" r:id="rId21" xr:uid="{EEA8BCEC-9F9A-4767-AB02-8D1CD56A0367}"/>
+    <hyperlink ref="H6" r:id="rId22" xr:uid="{DE6991A4-41A4-4850-B732-DF410D3584DA}"/>
+    <hyperlink ref="H7" r:id="rId23" xr:uid="{73A12C61-C767-48C8-B319-B231BE4557C8}"/>
+    <hyperlink ref="H8" r:id="rId24" xr:uid="{4314B15B-2F7B-4D1A-9A69-651C10A74D52}"/>
+    <hyperlink ref="H4" r:id="rId25" xr:uid="{3255D331-F60E-499F-A6DE-141FB220AEA4}"/>
+    <hyperlink ref="H10" r:id="rId26" xr:uid="{EDC5BD64-6DA7-4F8E-998E-6C8F24675941}"/>
+    <hyperlink ref="H14" r:id="rId27" xr:uid="{307FD16E-EFF3-4C24-84F1-35C7A10BFCC9}"/>
+    <hyperlink ref="H15" r:id="rId28" xr:uid="{94D528DC-BCD6-4592-A7E9-45EEF26504ED}"/>
+    <hyperlink ref="H16" r:id="rId29" xr:uid="{8B7B4974-3F60-4770-93BD-8913DA0208F6}"/>
+    <hyperlink ref="H17" r:id="rId30" xr:uid="{7A90BF67-131A-4BAC-B5D4-A7E479D736C4}"/>
+    <hyperlink ref="H3" r:id="rId31" xr:uid="{54C02004-5A21-442D-9551-32E389839492}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
